--- a/biology/Médecine/François_Merry_Delabost/François_Merry_Delabost.xlsx
+++ b/biology/Médecine/François_Merry_Delabost/François_Merry_Delabost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Merry_Delabost</t>
+          <t>François_Merry_Delabost</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Merry Delabost, né le 29 août 1836 à Saint-Saire et mort le 11 mars 1918 à Rouen[1], est un médecin français inventeur de la douche en 1872.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Merry Delabost, né le 29 août 1836 à Saint-Saire et mort le 11 mars 1918 à Rouen, est un médecin français inventeur de la douche en 1872.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Merry_Delabost</t>
+          <t>François_Merry_Delabost</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chirurgien à l’Hôtel-Dieu de Rouen de 1867 à 1883.
 Médecin-chef de la prison Bonne-Nouvelle à Rouen, il est connu pour être l’inventeur de la douche en 1872. Il a l’idée de la douche, non pas pour équiper les logements, mais pour améliorer l’hygiène dans les prisons françaises. Il a vendu son invention en mettant en avant les économies d’eau réalisées comparativement au bain. 
-Il est membre de l'Association française pour l'avancement des sciences[2].
+Il est membre de l'Association française pour l'avancement des sciences.
 Il est nommé directeur de l’École préparatoire de médecine et de pharmacie de Rouen en 1890.
-Il est chevalier de la Légion d'honneur en 1893[3] et président de l’Académie des sciences, belles-lettres et arts de Rouen en 1897.
-Une rue de Rouen dans le quartier Saint-Sever porte son nom[4].
+Il est chevalier de la Légion d'honneur en 1893 et président de l’Académie des sciences, belles-lettres et arts de Rouen en 1897.
+Une rue de Rouen dans le quartier Saint-Sever porte son nom.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Merry_Delabost</t>
+          <t>François_Merry_Delabost</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Note sur un système d’ablutions pratiqué à la prison de Rouen et applicable à tous les grands établissements pénitentiaires ou autres », dans Extrait des Annales d’hygiène publique et de médecine légale, 2e série, t. xliii, 1875.
 « Bains-douches de propreté, nouveaux appareils de bains dans les prisons françaises. Lettre à M. le secrétaire général de la Société générale des prisons », dans Bulletin de la Société générale des prisons, juin 1882.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Merry_Delabost</t>
+          <t>François_Merry_Delabost</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur (1893).
  Officier de l'Instruction publique.
